--- a/Data/EUDA/Cannabis_detaille/jamais_traite_entrants.xlsx
+++ b/Data/EUDA/Cannabis_detaille/jamais_traite_entrants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,52 +441,47 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Year of Treatment</t>
+          <t>All substances.jamais.jamais</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>All substances</t>
+          <t>Opioids.jamais.jamais</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Opioids</t>
+          <t>Cocaine.jamais.jamais</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Cocaine</t>
+          <t>Stimulants.jamais.jamais</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Stimulants</t>
+          <t>Hypnotics and Sedatives.jamais.jamais</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Hypnotics and Sedatives</t>
+          <t>Hallucinogens.jamais.jamais</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Hallucinogens</t>
+          <t>Volatile Inhalants.jamais.jamais</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Volatile Inhalants</t>
+          <t>Cannabis.jamais.jamais</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Cannabis</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Other substances</t>
+          <t>Other substances.jamais.jamais</t>
         </is>
       </c>
     </row>
@@ -497,33 +492,30 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2022</v>
+        <v>1953</v>
       </c>
       <c r="C2" t="n">
-        <v>1953</v>
+        <v>514</v>
       </c>
       <c r="D2" t="n">
-        <v>514</v>
+        <v>304</v>
       </c>
       <c r="E2" t="n">
-        <v>304</v>
+        <v>134</v>
       </c>
       <c r="F2" t="n">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>666</v>
       </c>
       <c r="J2" t="n">
-        <v>666</v>
-      </c>
-      <c r="K2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -534,33 +526,30 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2022</v>
+        <v>4151</v>
       </c>
       <c r="C3" t="n">
-        <v>4151</v>
+        <v>216</v>
       </c>
       <c r="D3" t="n">
-        <v>216</v>
+        <v>1115</v>
       </c>
       <c r="E3" t="n">
-        <v>1115</v>
+        <v>358</v>
       </c>
       <c r="F3" t="n">
-        <v>358</v>
+        <v>209</v>
       </c>
       <c r="G3" t="n">
-        <v>209</v>
+        <v>143</v>
       </c>
       <c r="H3" t="n">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="I3" t="n">
-        <v>15</v>
+        <v>1850</v>
       </c>
       <c r="J3" t="n">
-        <v>1850</v>
-      </c>
-      <c r="K3" t="n">
         <v>29</v>
       </c>
     </row>
@@ -571,33 +560,30 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022</v>
+        <v>605</v>
       </c>
       <c r="C4" t="n">
-        <v>605</v>
+        <v>84</v>
       </c>
       <c r="D4" t="n">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="E4" t="n">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="F4" t="n">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="G4" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="J4" t="n">
-        <v>66</v>
-      </c>
-      <c r="K4" t="n">
         <v>25</v>
       </c>
     </row>
@@ -608,33 +594,30 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2022</v>
+        <v>641</v>
       </c>
       <c r="C5" t="n">
-        <v>641</v>
+        <v>138</v>
       </c>
       <c r="D5" t="n">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="E5" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F5" t="n">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="G5" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="J5" t="n">
-        <v>288</v>
-      </c>
-      <c r="K5" t="n">
         <v>20</v>
       </c>
     </row>
@@ -645,31 +628,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2022</v>
+        <v>535</v>
       </c>
       <c r="C6" t="n">
-        <v>535</v>
+        <v>83</v>
       </c>
       <c r="D6" t="n">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="E6" t="n">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="F6" t="n">
-        <v>74</v>
-      </c>
-      <c r="G6" t="n">
         <v>1</v>
       </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
         <v>251</v>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -678,33 +658,30 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2020</v>
+        <v>2519</v>
       </c>
       <c r="C7" t="n">
-        <v>2519</v>
+        <v>470</v>
       </c>
       <c r="D7" t="n">
-        <v>470</v>
+        <v>28</v>
       </c>
       <c r="E7" t="n">
-        <v>28</v>
+        <v>1317</v>
       </c>
       <c r="F7" t="n">
-        <v>1317</v>
+        <v>129</v>
       </c>
       <c r="G7" t="n">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="H7" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>539</v>
       </c>
       <c r="J7" t="n">
-        <v>539</v>
-      </c>
-      <c r="K7" t="n">
         <v>19</v>
       </c>
     </row>
@@ -715,33 +692,30 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2022</v>
+        <v>3368</v>
       </c>
       <c r="C8" t="n">
-        <v>3368</v>
+        <v>206</v>
       </c>
       <c r="D8" t="n">
-        <v>206</v>
+        <v>648</v>
       </c>
       <c r="E8" t="n">
-        <v>648</v>
+        <v>136</v>
       </c>
       <c r="F8" t="n">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="G8" t="n">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>1493</v>
       </c>
       <c r="J8" t="n">
-        <v>1493</v>
-      </c>
-      <c r="K8" t="n">
         <v>65</v>
       </c>
     </row>
@@ -752,29 +726,26 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2022</v>
+        <v>124</v>
       </c>
       <c r="C9" t="n">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="D9" t="n">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F9" t="n">
-        <v>50</v>
-      </c>
-      <c r="G9" t="n">
         <v>5</v>
       </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
+      <c r="I9" t="n">
         <v>11</v>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -783,33 +754,30 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2021</v>
+        <v>164</v>
       </c>
       <c r="C10" t="n">
-        <v>164</v>
+        <v>66</v>
       </c>
       <c r="D10" t="n">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="F10" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G10" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J10" t="n">
-        <v>36</v>
-      </c>
-      <c r="K10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -820,33 +788,30 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2021</v>
+        <v>18195</v>
       </c>
       <c r="C11" t="n">
-        <v>18195</v>
+        <v>2497</v>
       </c>
       <c r="D11" t="n">
-        <v>2497</v>
+        <v>1911</v>
       </c>
       <c r="E11" t="n">
-        <v>1911</v>
+        <v>494</v>
       </c>
       <c r="F11" t="n">
-        <v>494</v>
+        <v>472</v>
       </c>
       <c r="G11" t="n">
-        <v>472</v>
+        <v>183</v>
       </c>
       <c r="H11" t="n">
-        <v>183</v>
+        <v>15</v>
       </c>
       <c r="I11" t="n">
-        <v>15</v>
+        <v>10680</v>
       </c>
       <c r="J11" t="n">
-        <v>10680</v>
-      </c>
-      <c r="K11" t="n">
         <v>204</v>
       </c>
     </row>
@@ -857,33 +822,30 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2022</v>
+        <v>22164</v>
       </c>
       <c r="C12" t="n">
-        <v>22164</v>
+        <v>1601</v>
       </c>
       <c r="D12" t="n">
-        <v>1601</v>
+        <v>2076</v>
       </c>
       <c r="E12" t="n">
-        <v>2076</v>
+        <v>2825</v>
       </c>
       <c r="F12" t="n">
-        <v>2825</v>
+        <v>545</v>
       </c>
       <c r="G12" t="n">
-        <v>545</v>
+        <v>74</v>
       </c>
       <c r="H12" t="n">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>14981</v>
       </c>
       <c r="J12" t="n">
-        <v>14981</v>
-      </c>
-      <c r="K12" t="n">
         <v>57</v>
       </c>
     </row>
@@ -894,33 +856,30 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2022</v>
+        <v>1527</v>
       </c>
       <c r="C13" t="n">
-        <v>1527</v>
+        <v>398</v>
       </c>
       <c r="D13" t="n">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="E13" t="n">
-        <v>354</v>
+        <v>31</v>
       </c>
       <c r="F13" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G13" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>684</v>
       </c>
       <c r="J13" t="n">
-        <v>684</v>
-      </c>
-      <c r="K13" t="n">
         <v>12</v>
       </c>
     </row>
@@ -931,33 +890,30 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2022</v>
+        <v>2867</v>
       </c>
       <c r="C14" t="n">
-        <v>2867</v>
+        <v>31</v>
       </c>
       <c r="D14" t="n">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="E14" t="n">
-        <v>172</v>
+        <v>568</v>
       </c>
       <c r="F14" t="n">
-        <v>568</v>
+        <v>19</v>
       </c>
       <c r="G14" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="H14" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>1895</v>
       </c>
       <c r="J14" t="n">
-        <v>1895</v>
-      </c>
-      <c r="K14" t="n">
         <v>147</v>
       </c>
     </row>
@@ -968,33 +924,30 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2022</v>
+        <v>4455</v>
       </c>
       <c r="C15" t="n">
-        <v>4455</v>
+        <v>597</v>
       </c>
       <c r="D15" t="n">
-        <v>597</v>
+        <v>1838</v>
       </c>
       <c r="E15" t="n">
-        <v>1838</v>
+        <v>74</v>
       </c>
       <c r="F15" t="n">
-        <v>74</v>
+        <v>401</v>
       </c>
       <c r="G15" t="n">
-        <v>401</v>
+        <v>13</v>
       </c>
       <c r="H15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I15" t="n">
-        <v>14</v>
+        <v>1463</v>
       </c>
       <c r="J15" t="n">
-        <v>1463</v>
-      </c>
-      <c r="K15" t="n">
         <v>55</v>
       </c>
     </row>
@@ -1005,33 +958,30 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2022</v>
+        <v>13731</v>
       </c>
       <c r="C16" t="n">
-        <v>13731</v>
+        <v>3105</v>
       </c>
       <c r="D16" t="n">
-        <v>3105</v>
+        <v>6055</v>
       </c>
       <c r="E16" t="n">
-        <v>6055</v>
+        <v>95</v>
       </c>
       <c r="F16" t="n">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="G16" t="n">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="H16" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>4194</v>
       </c>
       <c r="J16" t="n">
-        <v>4194</v>
-      </c>
-      <c r="K16" t="n">
         <v>97</v>
       </c>
     </row>
@@ -1042,33 +992,30 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2022</v>
+        <v>382</v>
       </c>
       <c r="C17" t="n">
-        <v>382</v>
+        <v>71</v>
       </c>
       <c r="D17" t="n">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="F17" t="n">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="G17" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
         <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="J17" t="n">
-        <v>165</v>
-      </c>
-      <c r="K17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1079,29 +1026,26 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2022</v>
+        <v>44</v>
       </c>
       <c r="C18" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D18" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>7</v>
-      </c>
-      <c r="G18" t="n">
         <v>2</v>
       </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>11</v>
+      </c>
       <c r="J18" t="n">
-        <v>11</v>
-      </c>
-      <c r="K18" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1112,25 +1056,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2022</v>
+        <v>90</v>
       </c>
       <c r="C19" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="D19" t="n">
-        <v>20</v>
-      </c>
-      <c r="E19" t="n">
         <v>13</v>
       </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
+      <c r="I19" t="n">
         <v>57</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1139,29 +1080,26 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2022</v>
+        <v>469</v>
       </c>
       <c r="C20" t="n">
-        <v>469</v>
+        <v>121</v>
       </c>
       <c r="D20" t="n">
-        <v>121</v>
+        <v>254</v>
       </c>
       <c r="E20" t="n">
-        <v>254</v>
-      </c>
-      <c r="F20" t="n">
         <v>8</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="n">
         <v>3</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
         <v>82</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1170,33 +1108,30 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2015</v>
+        <v>6529</v>
       </c>
       <c r="C21" t="n">
-        <v>6529</v>
+        <v>402</v>
       </c>
       <c r="D21" t="n">
-        <v>402</v>
+        <v>1357</v>
       </c>
       <c r="E21" t="n">
-        <v>1357</v>
+        <v>579</v>
       </c>
       <c r="F21" t="n">
-        <v>579</v>
+        <v>427</v>
       </c>
       <c r="G21" t="n">
-        <v>427</v>
+        <v>14</v>
       </c>
       <c r="H21" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>3625</v>
       </c>
       <c r="J21" t="n">
-        <v>3625</v>
-      </c>
-      <c r="K21" t="n">
         <v>119</v>
       </c>
     </row>
@@ -1207,35 +1142,32 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022</v>
+        <v>2720</v>
       </c>
       <c r="C22" t="n">
-        <v>2720</v>
+        <v>377</v>
       </c>
       <c r="D22" t="n">
-        <v>377</v>
+        <v>186</v>
       </c>
       <c r="E22" t="n">
-        <v>186</v>
+        <v>260</v>
       </c>
       <c r="F22" t="n">
-        <v>260</v>
+        <v>303</v>
       </c>
       <c r="G22" t="n">
-        <v>303</v>
+        <v>25</v>
       </c>
       <c r="H22" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="J22" t="n">
         <v>970</v>
       </c>
-      <c r="K22" t="n">
-        <v>970</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1244,33 +1176,30 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2022</v>
+        <v>2073</v>
       </c>
       <c r="C23" t="n">
-        <v>2073</v>
+        <v>161</v>
       </c>
       <c r="D23" t="n">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="E23" t="n">
-        <v>72</v>
+        <v>1033</v>
       </c>
       <c r="F23" t="n">
-        <v>1033</v>
+        <v>89</v>
       </c>
       <c r="G23" t="n">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>648</v>
       </c>
       <c r="J23" t="n">
-        <v>648</v>
-      </c>
-      <c r="K23" t="n">
         <v>62</v>
       </c>
     </row>
@@ -1281,31 +1210,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2022</v>
+        <v>1915</v>
       </c>
       <c r="C24" t="n">
-        <v>1915</v>
+        <v>338</v>
       </c>
       <c r="D24" t="n">
-        <v>338</v>
+        <v>569</v>
       </c>
       <c r="E24" t="n">
-        <v>569</v>
+        <v>39</v>
       </c>
       <c r="F24" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G24" t="n">
-        <v>32</v>
-      </c>
-      <c r="H24" t="n">
         <v>3</v>
       </c>
-      <c r="I24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>896</v>
+      </c>
       <c r="J24" t="n">
-        <v>896</v>
-      </c>
-      <c r="K24" t="n">
         <v>35</v>
       </c>
     </row>
@@ -1316,33 +1242,30 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022</v>
+        <v>2430</v>
       </c>
       <c r="C25" t="n">
-        <v>2430</v>
+        <v>206</v>
       </c>
       <c r="D25" t="n">
-        <v>206</v>
+        <v>121</v>
       </c>
       <c r="E25" t="n">
-        <v>121</v>
+        <v>219</v>
       </c>
       <c r="F25" t="n">
-        <v>219</v>
+        <v>27</v>
       </c>
       <c r="G25" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H25" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>1606</v>
       </c>
       <c r="J25" t="n">
-        <v>1606</v>
-      </c>
-      <c r="K25" t="n">
         <v>229</v>
       </c>
     </row>
@@ -1353,31 +1276,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2022</v>
+        <v>1003</v>
       </c>
       <c r="C26" t="n">
-        <v>1003</v>
+        <v>70</v>
       </c>
       <c r="D26" t="n">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="E26" t="n">
-        <v>18</v>
+        <v>517</v>
       </c>
       <c r="F26" t="n">
-        <v>517</v>
-      </c>
-      <c r="G26" t="n">
         <v>39</v>
       </c>
-      <c r="H26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
       <c r="I26" t="n">
-        <v>9</v>
-      </c>
-      <c r="J26" t="n">
         <v>250</v>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1386,33 +1306,30 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2022</v>
+        <v>32</v>
       </c>
       <c r="C27" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D27" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
         <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
-      </c>
-      <c r="K27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1423,33 +1340,30 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2021</v>
+        <v>23482</v>
       </c>
       <c r="C28" t="n">
-        <v>23482</v>
+        <v>2463</v>
       </c>
       <c r="D28" t="n">
-        <v>2463</v>
+        <v>10647</v>
       </c>
       <c r="E28" t="n">
-        <v>10647</v>
+        <v>863</v>
       </c>
       <c r="F28" t="n">
-        <v>863</v>
+        <v>768</v>
       </c>
       <c r="G28" t="n">
-        <v>768</v>
+        <v>80</v>
       </c>
       <c r="H28" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="I28" t="n">
-        <v>51</v>
+        <v>8529</v>
       </c>
       <c r="J28" t="n">
-        <v>8529</v>
-      </c>
-      <c r="K28" t="n">
         <v>81</v>
       </c>
     </row>
@@ -1460,33 +1374,30 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2022</v>
+        <v>13237</v>
       </c>
       <c r="C29" t="n">
-        <v>13237</v>
+        <v>1973</v>
       </c>
       <c r="D29" t="n">
-        <v>1973</v>
+        <v>517</v>
       </c>
       <c r="E29" t="n">
-        <v>517</v>
+        <v>1373</v>
       </c>
       <c r="F29" t="n">
-        <v>1373</v>
+        <v>2679</v>
       </c>
       <c r="G29" t="n">
-        <v>2679</v>
+        <v>202</v>
       </c>
       <c r="H29" t="n">
-        <v>202</v>
+        <v>114</v>
       </c>
       <c r="I29" t="n">
-        <v>114</v>
+        <v>1816</v>
       </c>
       <c r="J29" t="n">
-        <v>1816</v>
-      </c>
-      <c r="K29" t="n">
         <v>4563</v>
       </c>
     </row>
@@ -1497,33 +1408,30 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2022</v>
+        <v>6830</v>
       </c>
       <c r="C30" t="n">
-        <v>6830</v>
+        <v>2312</v>
       </c>
       <c r="D30" t="n">
-        <v>2312</v>
+        <v>206</v>
       </c>
       <c r="E30" t="n">
-        <v>206</v>
+        <v>3296</v>
       </c>
       <c r="F30" t="n">
-        <v>3296</v>
+        <v>32</v>
       </c>
       <c r="G30" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="H30" t="n">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="I30" t="n">
-        <v>54</v>
+        <v>669</v>
       </c>
       <c r="J30" t="n">
-        <v>669</v>
-      </c>
-      <c r="K30" t="n">
         <v>252</v>
       </c>
     </row>
@@ -1538,7 +1446,6 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1555,7 +1462,6 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
